--- a/titlePilotStudy/data/SLV.xlsx
+++ b/titlePilotStudy/data/SLV.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
-  <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="7280" windowWidth="14400" windowHeight="9660"/>
+    <workbookView xWindow="1536" yWindow="7284" windowWidth="14400" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="497">
   <si>
     <t>Identifier</t>
   </si>
@@ -1367,9 +1362,6 @@
   </si>
   <si>
     <t>T2</t>
-  </si>
-  <si>
-    <t>T</t>
   </si>
   <si>
     <t>T4</t>
@@ -1528,7 +1520,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1669,8 +1661,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1950,28 +1942,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="50" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="AQ20" sqref="AQ20"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="9"/>
-    <col min="2" max="21" width="8.83203125" style="1"/>
-    <col min="22" max="28" width="8.83203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="9"/>
+    <col min="2" max="21" width="8.77734375" style="1"/>
+    <col min="22" max="28" width="8.77734375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.77734375" style="1"/>
     <col min="30" max="30" width="12.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.1640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.83203125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="7.77734375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.44140625" style="1" customWidth="1"/>
     <col min="34" max="34" width="11.6640625" style="1" customWidth="1"/>
     <col min="35" max="35" width="9" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.83203125" style="1"/>
+    <col min="36" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2096,19 +2088,19 @@
         <v>429</v>
       </c>
       <c r="AP1" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AQ1" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="AR1" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="AR1" s="10" t="s">
-        <v>496</v>
-      </c>
       <c r="AS1" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" ht="105" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>38</v>
       </c>
@@ -2170,7 +2162,7 @@
         <v>25</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>25</v>
@@ -2191,7 +2183,7 @@
         <v>215</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>25</v>
@@ -2230,7 +2222,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>43</v>
       </c>
@@ -2349,7 +2341,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
@@ -2414,7 +2406,7 @@
         <v>224</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>25</v>
@@ -2432,7 +2424,7 @@
         <v>215</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>25</v>
@@ -2466,7 +2458,7 @@
       </c>
       <c r="AM4" s="3"/>
     </row>
-    <row r="5" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>50</v>
       </c>
@@ -2585,7 +2577,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>53</v>
       </c>
@@ -2650,7 +2642,7 @@
         <v>224</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>25</v>
@@ -2668,7 +2660,7 @@
         <v>215</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>25</v>
@@ -2702,7 +2694,7 @@
       </c>
       <c r="AM6" s="3"/>
     </row>
-    <row r="7" spans="1:45" ht="45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>55</v>
       </c>
@@ -2764,10 +2756,10 @@
         <v>25</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>25</v>
@@ -2785,7 +2777,7 @@
         <v>215</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>25</v>
@@ -2821,10 +2813,10 @@
         <v>299</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" ht="105" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -2889,7 +2881,7 @@
         <v>224</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>25</v>
@@ -2907,7 +2899,7 @@
         <v>215</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>424</v>
@@ -2943,7 +2935,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>58</v>
       </c>
@@ -3026,7 +3018,7 @@
         <v>215</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>25</v>
@@ -3062,7 +3054,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>60</v>
       </c>
@@ -3181,7 +3173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>61</v>
       </c>
@@ -3300,7 +3292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>62</v>
       </c>
@@ -3383,7 +3375,7 @@
         <v>215</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>25</v>
@@ -3419,7 +3411,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>64</v>
       </c>
@@ -3502,7 +3494,7 @@
         <v>215</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>25</v>
@@ -3538,7 +3530,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>65</v>
       </c>
@@ -3600,10 +3592,10 @@
         <v>25</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>25</v>
@@ -3621,7 +3613,7 @@
         <v>215</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>25</v>
@@ -3657,10 +3649,10 @@
         <v>301</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>67</v>
       </c>
@@ -3725,7 +3717,7 @@
         <v>25</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>25</v>
@@ -3743,7 +3735,7 @@
         <v>215</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>25</v>
@@ -3779,7 +3771,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>69</v>
       </c>
@@ -3844,7 +3836,7 @@
         <v>25</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>25</v>
@@ -3862,7 +3854,7 @@
         <v>215</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC16" s="3" t="s">
         <v>216</v>
@@ -3898,7 +3890,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>71</v>
       </c>
@@ -3981,7 +3973,7 @@
         <v>215</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC17" s="3" t="s">
         <v>216</v>
@@ -4017,7 +4009,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>73</v>
       </c>
@@ -4100,7 +4092,7 @@
         <v>215</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>25</v>
@@ -4136,7 +4128,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>75</v>
       </c>
@@ -4219,7 +4211,7 @@
         <v>215</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AC19" s="3" t="s">
         <v>25</v>
@@ -4252,7 +4244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>77</v>
       </c>
@@ -4335,7 +4327,7 @@
         <v>215</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>25</v>
@@ -4374,10 +4366,10 @@
         <v>215</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>79</v>
       </c>
@@ -4460,7 +4452,7 @@
         <v>215</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>25</v>
@@ -4493,7 +4485,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>80</v>
       </c>
@@ -4576,7 +4568,7 @@
         <v>215</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>216</v>
@@ -4612,7 +4604,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>81</v>
       </c>
@@ -4695,7 +4687,7 @@
         <v>215</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC23" s="3" t="s">
         <v>25</v>
@@ -4728,7 +4720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="90" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>83</v>
       </c>
@@ -4811,7 +4803,7 @@
         <v>215</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC24" s="3" t="s">
         <v>216</v>
@@ -4847,7 +4839,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>84</v>
       </c>
@@ -4912,7 +4904,7 @@
         <v>224</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="W25" s="2" t="s">
         <v>25</v>
@@ -4930,7 +4922,7 @@
         <v>215</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC25" s="3" t="s">
         <v>25</v>
@@ -4966,7 +4958,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>87</v>
       </c>
@@ -5049,7 +5041,7 @@
         <v>215</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC26" s="3" t="s">
         <v>25</v>
@@ -5082,7 +5074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>89</v>
       </c>
@@ -5201,7 +5193,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>91</v>
       </c>
@@ -5263,7 +5255,7 @@
         <v>25</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>309</v>
@@ -5284,7 +5276,7 @@
         <v>215</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC28" s="3" t="s">
         <v>25</v>
@@ -5320,7 +5312,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>92</v>
       </c>
@@ -5436,7 +5428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>95</v>
       </c>
@@ -5501,7 +5493,7 @@
         <v>224</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="W30" s="2" t="s">
         <v>25</v>
@@ -5519,7 +5511,7 @@
         <v>215</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC30" s="3" t="s">
         <v>25</v>
@@ -5552,7 +5544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>96</v>
       </c>
@@ -5614,10 +5606,10 @@
         <v>25</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="W31" s="2" t="s">
         <v>25</v>
@@ -5635,7 +5627,7 @@
         <v>215</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC31" s="3" t="s">
         <v>25</v>
@@ -5674,7 +5666,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="32" spans="1:45" ht="75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>97</v>
       </c>
@@ -5691,7 +5683,7 @@
         <v>1903</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>98</v>
@@ -5757,7 +5749,7 @@
         <v>215</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC32" s="3" t="s">
         <v>25</v>
@@ -5793,7 +5785,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>99</v>
       </c>
@@ -5810,7 +5802,7 @@
         <v>1917</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>100</v>
@@ -5855,10 +5847,10 @@
         <v>25</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="W33" s="2" t="s">
         <v>25</v>
@@ -5915,7 +5907,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>101</v>
       </c>
@@ -5932,7 +5924,7 @@
         <v>1916</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>378</v>
@@ -5998,7 +5990,7 @@
         <v>215</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC34" s="3" t="s">
         <v>25</v>
@@ -6034,7 +6026,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="120" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>103</v>
       </c>
@@ -6051,7 +6043,7 @@
         <v>1909</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>379</v>
@@ -6117,7 +6109,7 @@
         <v>215</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AC35" s="3" t="s">
         <v>25</v>
@@ -6153,7 +6145,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>105</v>
       </c>
@@ -6170,7 +6162,7 @@
         <v>1910</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>380</v>
@@ -6236,7 +6228,7 @@
         <v>215</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC36" s="3" t="s">
         <v>25</v>
@@ -6272,7 +6264,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>107</v>
       </c>
@@ -6289,7 +6281,7 @@
         <v>1917</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>108</v>
@@ -6337,7 +6329,7 @@
         <v>224</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W37" s="2" t="s">
         <v>25</v>
@@ -6391,7 +6383,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>110</v>
       </c>
@@ -6456,7 +6448,7 @@
         <v>224</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>25</v>
@@ -6474,7 +6466,7 @@
         <v>215</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC38" s="3" t="s">
         <v>25</v>
@@ -6510,7 +6502,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>111</v>
       </c>
@@ -6527,7 +6519,7 @@
         <v>1908</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>382</v>
@@ -6575,7 +6567,7 @@
         <v>224</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W39" s="2" t="s">
         <v>25</v>
@@ -6593,7 +6585,7 @@
         <v>215</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC39" s="3" t="s">
         <v>25</v>
@@ -6629,7 +6621,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>112</v>
       </c>
@@ -6646,7 +6638,7 @@
         <v>1900</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>383</v>
@@ -6694,7 +6686,7 @@
         <v>224</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="W40" s="2" t="s">
         <v>25</v>
@@ -6712,7 +6704,7 @@
         <v>215</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AC40" s="3" t="s">
         <v>25</v>
@@ -6748,7 +6740,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>113</v>
       </c>
@@ -6765,7 +6757,7 @@
         <v>1909</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>384</v>
@@ -6831,7 +6823,7 @@
         <v>215</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>25</v>
@@ -6867,7 +6859,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>115</v>
       </c>
@@ -6884,7 +6876,7 @@
         <v>1906</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>385</v>
@@ -6950,7 +6942,7 @@
         <v>215</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AC42" s="3" t="s">
         <v>25</v>
@@ -6983,7 +6975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>117</v>
       </c>
@@ -7000,7 +6992,7 @@
         <v>1902</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>118</v>
@@ -7102,7 +7094,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>119</v>
       </c>
@@ -7116,10 +7108,10 @@
         <v>39</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>386</v>
@@ -7167,7 +7159,7 @@
         <v>224</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="W44" s="2" t="s">
         <v>25</v>
@@ -7185,7 +7177,7 @@
         <v>215</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC44" s="3" t="s">
         <v>25</v>
@@ -7221,7 +7213,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>120</v>
       </c>
@@ -7335,7 +7327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>122</v>
       </c>
@@ -7349,10 +7341,10 @@
         <v>39</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>387</v>
@@ -7418,7 +7410,7 @@
         <v>215</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>25</v>
@@ -7451,7 +7443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>124</v>
       </c>
@@ -7468,7 +7460,7 @@
         <v>1895</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>388</v>
@@ -7516,7 +7508,7 @@
         <v>224</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="W47" s="2" t="s">
         <v>25</v>
@@ -7534,7 +7526,7 @@
         <v>215</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>25</v>
@@ -7570,7 +7562,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="120" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>126</v>
       </c>
@@ -7587,7 +7579,7 @@
         <v>1901</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>389</v>
@@ -7635,7 +7627,7 @@
         <v>224</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="W48" s="2" t="s">
         <v>25</v>
@@ -7653,7 +7645,7 @@
         <v>215</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC48" s="3" t="s">
         <v>424</v>
@@ -7689,7 +7681,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
         <v>128</v>
       </c>
@@ -7706,7 +7698,7 @@
         <v>1903</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>390</v>
@@ -7754,7 +7746,7 @@
         <v>224</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W49" s="2" t="s">
         <v>25</v>
@@ -7772,7 +7764,7 @@
         <v>215</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>424</v>
@@ -7808,7 +7800,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>130</v>
       </c>
@@ -7825,7 +7817,7 @@
         <v>1904</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>391</v>
@@ -7891,7 +7883,7 @@
         <v>215</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC50" s="3" t="s">
         <v>424</v>
@@ -7927,7 +7919,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>131</v>
       </c>
@@ -7944,7 +7936,7 @@
         <v>1904</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>392</v>
@@ -8010,7 +8002,7 @@
         <v>215</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC51" s="3" t="s">
         <v>25</v>
@@ -8046,7 +8038,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="120" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:42" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>133</v>
       </c>
@@ -8063,7 +8055,7 @@
         <v>1910</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>393</v>
@@ -8106,10 +8098,10 @@
         <v>219</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W52" s="2" t="s">
         <v>25</v>
@@ -8163,10 +8155,10 @@
         <v>324</v>
       </c>
       <c r="AP52" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="53" spans="1:42" ht="75" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>134</v>
       </c>
@@ -8183,7 +8175,7 @@
         <v>1904</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>394</v>
@@ -8249,7 +8241,7 @@
         <v>215</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC53" s="3" t="s">
         <v>25</v>
@@ -8285,7 +8277,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
         <v>135</v>
       </c>
@@ -8302,7 +8294,7 @@
         <v>1907</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>395</v>
@@ -8368,7 +8360,7 @@
         <v>215</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC54" s="3" t="s">
         <v>25</v>
@@ -8404,7 +8396,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>136</v>
       </c>
@@ -8421,7 +8413,7 @@
         <v>1909</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>396</v>
@@ -8487,7 +8479,7 @@
         <v>215</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC55" s="3" t="s">
         <v>216</v>
@@ -8523,7 +8515,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>137</v>
       </c>
@@ -8540,7 +8532,7 @@
         <v>1909</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>397</v>
@@ -8606,7 +8598,7 @@
         <v>215</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC56" s="3" t="s">
         <v>25</v>
@@ -8642,7 +8634,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>138</v>
       </c>
@@ -8692,7 +8684,7 @@
         <v>25</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>25</v>
@@ -8761,7 +8753,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="60" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>141</v>
       </c>
@@ -8778,7 +8770,7 @@
         <v>1917</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>142</v>
@@ -8880,7 +8872,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="90" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A59" s="14" t="s">
         <v>143</v>
       </c>
@@ -8897,7 +8889,7 @@
         <v>1918</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>398</v>
@@ -8945,7 +8937,7 @@
         <v>224</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W59" s="2" t="s">
         <v>25</v>
@@ -8963,7 +8955,7 @@
         <v>215</v>
       </c>
       <c r="AB59" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>25</v>
@@ -8999,7 +8991,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="90" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:42" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>144</v>
       </c>
@@ -9016,7 +9008,7 @@
         <v>1913</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>399</v>
@@ -9061,7 +9053,7 @@
         <v>25</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>328</v>
@@ -9082,7 +9074,7 @@
         <v>215</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC60" s="3" t="s">
         <v>25</v>
@@ -9118,7 +9110,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>146</v>
       </c>
@@ -9135,7 +9127,7 @@
         <v>1904</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>400</v>
@@ -9153,7 +9145,7 @@
         <v>25</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>25</v>
@@ -9199,7 +9191,7 @@
         <v>215</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC61" s="3" t="s">
         <v>216</v>
@@ -9235,7 +9227,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:42" ht="75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>147</v>
       </c>
@@ -9349,7 +9341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:42" ht="75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:42" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="14" t="s">
         <v>149</v>
       </c>
@@ -9366,7 +9358,7 @@
         <v>1912</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G63" s="15" t="s">
         <v>401</v>
@@ -9432,7 +9424,7 @@
         <v>215</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC63" s="3" t="s">
         <v>25</v>
@@ -9468,7 +9460,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="64" spans="1:42" ht="45" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:42" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>150</v>
       </c>
@@ -9485,7 +9477,7 @@
         <v>1905</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>402</v>
@@ -9530,10 +9522,10 @@
         <v>25</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W64" s="2" t="s">
         <v>25</v>
@@ -9551,7 +9543,7 @@
         <v>215</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC64" s="3" t="s">
         <v>25</v>
@@ -9587,10 +9579,10 @@
         <v>331</v>
       </c>
       <c r="AP64" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="65" spans="1:41" ht="75" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>151</v>
       </c>
@@ -9671,7 +9663,7 @@
         <v>215</v>
       </c>
       <c r="AB65" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC65" s="3" t="s">
         <v>216</v>
@@ -9713,7 +9705,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="66" spans="1:41" ht="60" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:41" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>152</v>
       </c>
@@ -9727,10 +9719,10 @@
         <v>145</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>403</v>
@@ -9796,7 +9788,7 @@
         <v>215</v>
       </c>
       <c r="AB66" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC66" s="3" t="s">
         <v>25</v>
@@ -9832,7 +9824,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="67" spans="1:41" ht="60" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:41" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>153</v>
       </c>
@@ -9949,7 +9941,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="68" spans="1:41" ht="105" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:41" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>155</v>
       </c>
@@ -10030,7 +10022,7 @@
         <v>215</v>
       </c>
       <c r="AB68" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC68" s="3" t="s">
         <v>216</v>
@@ -10066,7 +10058,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="69" spans="1:41" ht="120" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:41" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
         <v>157</v>
       </c>
@@ -10081,7 +10073,7 @@
         <v>1836</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G69" s="15" t="s">
         <v>434</v>
@@ -10126,7 +10118,7 @@
         <v>25</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>334</v>
@@ -10183,7 +10175,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="70" spans="1:41" ht="45" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:41" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="14" t="s">
         <v>159</v>
       </c>
@@ -10198,7 +10190,7 @@
         <v>1905</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G70" s="15" t="s">
         <v>436</v>
@@ -10246,7 +10238,7 @@
         <v>224</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="W70" s="2" t="s">
         <v>25</v>
@@ -10264,7 +10256,7 @@
         <v>215</v>
       </c>
       <c r="AB70" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC70" s="3" t="s">
         <v>25</v>
@@ -10298,7 +10290,7 @@
       </c>
       <c r="AM70" s="3"/>
     </row>
-    <row r="71" spans="1:41" ht="75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:41" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>161</v>
       </c>
@@ -10313,7 +10305,7 @@
         <v>1907</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>162</v>
@@ -10415,7 +10407,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="1:41" ht="75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:41" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>163</v>
       </c>
@@ -10430,7 +10422,7 @@
         <v>1910</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>405</v>
@@ -10496,7 +10488,7 @@
         <v>215</v>
       </c>
       <c r="AB72" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>25</v>
@@ -10530,7 +10522,7 @@
       </c>
       <c r="AM72" s="3"/>
     </row>
-    <row r="73" spans="1:41" ht="60" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:41" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>165</v>
       </c>
@@ -10611,7 +10603,7 @@
         <v>215</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC73" s="3" t="s">
         <v>25</v>
@@ -10647,7 +10639,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="74" spans="1:41" ht="105" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:41" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>166</v>
       </c>
@@ -10710,7 +10702,7 @@
         <v>224</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="W74" s="2" t="s">
         <v>25</v>
@@ -10728,7 +10720,7 @@
         <v>215</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC74" s="3" t="s">
         <v>25</v>
@@ -10764,7 +10756,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="75" spans="1:41" ht="60" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:41" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
         <v>167</v>
       </c>
@@ -10845,7 +10837,7 @@
         <v>215</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC75" s="3" t="s">
         <v>25</v>
@@ -10881,7 +10873,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="76" spans="1:41" ht="180" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:41" ht="216" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>169</v>
       </c>
@@ -10962,7 +10954,7 @@
         <v>215</v>
       </c>
       <c r="AB76" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC76" s="3" t="s">
         <v>25</v>
@@ -10998,7 +10990,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="77" spans="1:41" ht="60" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:41" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>170</v>
       </c>
@@ -11079,7 +11071,7 @@
         <v>215</v>
       </c>
       <c r="AB77" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC77" s="3" t="s">
         <v>25</v>
@@ -11115,7 +11107,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="78" spans="1:41" ht="75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:41" ht="72" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>171</v>
       </c>
@@ -11178,7 +11170,7 @@
         <v>224</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W78" s="2" t="s">
         <v>25</v>
@@ -11196,7 +11188,7 @@
         <v>215</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC78" s="3" t="s">
         <v>25</v>
@@ -11232,7 +11224,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:41" ht="60" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:41" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
         <v>172</v>
       </c>
@@ -11247,7 +11239,7 @@
         <v>1904</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G79" s="15" t="s">
         <v>411</v>
@@ -11313,7 +11305,7 @@
         <v>215</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC79" s="3" t="s">
         <v>25</v>
@@ -11349,7 +11341,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="80" spans="1:41" ht="60" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:41" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>174</v>
       </c>
@@ -11364,7 +11356,7 @@
         <v>1907</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>175</v>
@@ -11430,7 +11422,7 @@
         <v>215</v>
       </c>
       <c r="AB80" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC80" s="3" t="s">
         <v>25</v>
@@ -11463,7 +11455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:39" ht="60" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>177</v>
       </c>
@@ -11478,7 +11470,7 @@
         <v>1914</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G81" s="15" t="s">
         <v>412</v>
@@ -11526,7 +11518,7 @@
         <v>224</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W81" s="2" t="s">
         <v>25</v>
@@ -11544,7 +11536,7 @@
         <v>215</v>
       </c>
       <c r="AB81" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC81" s="3" t="s">
         <v>25</v>
@@ -11580,7 +11572,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="82" spans="1:39" ht="75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:39" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>178</v>
       </c>
@@ -11697,7 +11689,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:39" ht="225" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:39" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>180</v>
       </c>
@@ -11712,7 +11704,7 @@
         <v>1903</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G83" s="15" t="s">
         <v>438</v>
@@ -11778,7 +11770,7 @@
         <v>215</v>
       </c>
       <c r="AB83" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>25</v>
@@ -11814,7 +11806,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="84" spans="1:39" ht="75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:39" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>181</v>
       </c>
@@ -11829,7 +11821,7 @@
         <v>1913</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G84" s="15" t="s">
         <v>414</v>
@@ -11931,7 +11923,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="85" spans="1:39" ht="60" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>182</v>
       </c>
@@ -11946,7 +11938,7 @@
         <v>1917</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G85" s="15" t="s">
         <v>183</v>
@@ -12048,7 +12040,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="86" spans="1:39" ht="60" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>185</v>
       </c>
@@ -12111,7 +12103,7 @@
         <v>224</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W86" s="2" t="s">
         <v>25</v>
@@ -12162,7 +12154,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:39" ht="60" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>188</v>
       </c>
@@ -12243,7 +12235,7 @@
         <v>215</v>
       </c>
       <c r="AB87" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC87" s="3" t="s">
         <v>25</v>
@@ -12276,7 +12268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:39" ht="60" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>189</v>
       </c>
@@ -12291,7 +12283,7 @@
         <v>1910</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G88" s="15" t="s">
         <v>416</v>
@@ -12357,7 +12349,7 @@
         <v>215</v>
       </c>
       <c r="AB88" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC88" s="3" t="s">
         <v>25</v>
@@ -12390,7 +12382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:39" ht="60" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
         <v>191</v>
       </c>
@@ -12504,7 +12496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:39" ht="60" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>194</v>
       </c>
@@ -12618,7 +12610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:39" ht="60" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A91" s="14" t="s">
         <v>196</v>
       </c>
@@ -12735,7 +12727,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="45" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>198</v>
       </c>
@@ -12750,7 +12742,7 @@
         <v>1919</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G92" s="15" t="s">
         <v>199</v>
@@ -12816,7 +12808,7 @@
         <v>215</v>
       </c>
       <c r="AB92" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AC92" s="3" t="s">
         <v>25</v>
@@ -12852,7 +12844,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="93" spans="1:39" ht="60" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:39" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="14" t="s">
         <v>200</v>
       </c>
@@ -12867,7 +12859,7 @@
         <v>1911</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G93" s="15" t="s">
         <v>417</v>
@@ -12933,7 +12925,7 @@
         <v>215</v>
       </c>
       <c r="AB93" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC93" s="3" t="s">
         <v>25</v>
@@ -12969,7 +12961,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="94" spans="1:39" ht="60" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" s="14" t="s">
         <v>202</v>
       </c>
@@ -13050,7 +13042,7 @@
         <v>215</v>
       </c>
       <c r="AB94" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>25</v>
@@ -13083,7 +13075,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:39" ht="60" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="14" t="s">
         <v>204</v>
       </c>
@@ -13164,7 +13156,7 @@
         <v>215</v>
       </c>
       <c r="AB95" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC95" s="3" t="s">
         <v>25</v>
@@ -13200,7 +13192,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="96" spans="1:39" ht="60" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:39" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>205</v>
       </c>
@@ -13215,7 +13207,7 @@
         <v>1921</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G96" s="15" t="s">
         <v>439</v>
@@ -13263,7 +13255,7 @@
         <v>224</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W96" s="3" t="s">
         <v>25</v>
@@ -13281,7 +13273,7 @@
         <v>215</v>
       </c>
       <c r="AB96" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC96" s="3" t="s">
         <v>25</v>
@@ -13314,7 +13306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:45" ht="72" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>206</v>
       </c>
@@ -13329,7 +13321,7 @@
         <v>1911</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G97" s="15" t="s">
         <v>440</v>
@@ -13395,7 +13387,7 @@
         <v>215</v>
       </c>
       <c r="AB97" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC97" s="3" t="s">
         <v>25</v>
@@ -13428,7 +13420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:45" ht="90" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:45" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
         <v>208</v>
       </c>
@@ -13443,7 +13435,7 @@
         <v>1900</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G98" s="15" t="s">
         <v>420</v>
@@ -13488,7 +13480,7 @@
         <v>25</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="V98" s="3" t="s">
         <v>351</v>
@@ -13509,7 +13501,7 @@
         <v>215</v>
       </c>
       <c r="AB98" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC98" s="3" t="s">
         <v>25</v>
@@ -13545,10 +13537,10 @@
         <v>351</v>
       </c>
       <c r="AP98" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="99" spans="1:45" ht="90" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="99" spans="1:45" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
         <v>209</v>
       </c>
@@ -13563,7 +13555,7 @@
         <v>1859</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G99" s="15" t="s">
         <v>441</v>
@@ -13671,10 +13663,10 @@
         <v>25</v>
       </c>
       <c r="AS99" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="100" spans="1:45" ht="75" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="100" spans="1:45" ht="72" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>211</v>
       </c>
@@ -13789,7 +13781,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="101" spans="1:45" ht="60" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>212</v>
       </c>
@@ -13804,7 +13796,7 @@
         <v>1913</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G101" s="15" t="s">
         <v>213</v>
@@ -13852,7 +13844,7 @@
         <v>224</v>
       </c>
       <c r="V101" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>25</v>
@@ -13906,7 +13898,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -13936,7 +13928,7 @@
       <c r="AA102" s="3"/>
       <c r="AB102" s="3"/>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -13966,7 +13958,7 @@
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -13996,7 +13988,7 @@
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -14026,7 +14018,7 @@
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -14056,7 +14048,7 @@
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -14086,7 +14078,7 @@
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -14116,7 +14108,7 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -14146,7 +14138,7 @@
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -14176,7 +14168,7 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -14206,7 +14198,7 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A112" s="8"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -14236,7 +14228,7 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A113" s="8"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -14266,7 +14258,7 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -14296,7 +14288,7 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -14326,7 +14318,7 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -14356,7 +14348,7 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -14386,7 +14378,7 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -14416,7 +14408,7 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -14446,7 +14438,7 @@
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -14476,7 +14468,7 @@
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -14506,7 +14498,7 @@
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -14536,7 +14528,7 @@
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -14566,7 +14558,7 @@
       <c r="AA123" s="3"/>
       <c r="AB123" s="3"/>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -14596,7 +14588,7 @@
       <c r="AA124" s="3"/>
       <c r="AB124" s="3"/>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -14626,7 +14618,7 @@
       <c r="AA125" s="3"/>
       <c r="AB125" s="3"/>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A126" s="8"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -14656,7 +14648,7 @@
       <c r="AA126" s="3"/>
       <c r="AB126" s="3"/>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -14686,7 +14678,7 @@
       <c r="AA127" s="3"/>
       <c r="AB127" s="3"/>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A128" s="8"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -14716,7 +14708,7 @@
       <c r="AA128" s="3"/>
       <c r="AB128" s="3"/>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" s="8"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -14746,7 +14738,7 @@
       <c r="AA129" s="3"/>
       <c r="AB129" s="3"/>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A130" s="8"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -14776,7 +14768,7 @@
       <c r="AA130" s="3"/>
       <c r="AB130" s="3"/>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131" s="8"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -14806,7 +14798,7 @@
       <c r="AA131" s="3"/>
       <c r="AB131" s="3"/>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -14836,7 +14828,7 @@
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -14866,7 +14858,7 @@
       <c r="AA133" s="3"/>
       <c r="AB133" s="3"/>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134" s="8"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -14896,7 +14888,7 @@
       <c r="AA134" s="3"/>
       <c r="AB134" s="3"/>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135" s="8"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -14926,7 +14918,7 @@
       <c r="AA135" s="3"/>
       <c r="AB135" s="3"/>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -14956,7 +14948,7 @@
       <c r="AA136" s="3"/>
       <c r="AB136" s="3"/>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -14986,7 +14978,7 @@
       <c r="AA137" s="3"/>
       <c r="AB137" s="3"/>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A138" s="8"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -15016,7 +15008,7 @@
       <c r="AA138" s="3"/>
       <c r="AB138" s="3"/>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -15046,7 +15038,7 @@
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -15076,7 +15068,7 @@
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A141" s="8"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -15106,7 +15098,7 @@
       <c r="AA141" s="3"/>
       <c r="AB141" s="3"/>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A142" s="8"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -15136,7 +15128,7 @@
       <c r="AA142" s="3"/>
       <c r="AB142" s="3"/>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -15166,7 +15158,7 @@
       <c r="AA143" s="3"/>
       <c r="AB143" s="3"/>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A144" s="8"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -15196,7 +15188,7 @@
       <c r="AA144" s="3"/>
       <c r="AB144" s="3"/>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A145" s="8"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -15226,7 +15218,7 @@
       <c r="AA145" s="3"/>
       <c r="AB145" s="3"/>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A146" s="8"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -15256,7 +15248,7 @@
       <c r="AA146" s="3"/>
       <c r="AB146" s="3"/>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -15286,7 +15278,7 @@
       <c r="AA147" s="3"/>
       <c r="AB147" s="3"/>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A148" s="8"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -15316,7 +15308,7 @@
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A149" s="8"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -15346,7 +15338,7 @@
       <c r="AA149" s="3"/>
       <c r="AB149" s="3"/>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A150" s="8"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -15376,7 +15368,7 @@
       <c r="AA150" s="3"/>
       <c r="AB150" s="3"/>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A151" s="8"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -15406,7 +15398,7 @@
       <c r="AA151" s="3"/>
       <c r="AB151" s="3"/>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A152" s="8"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -15436,7 +15428,7 @@
       <c r="AA152" s="3"/>
       <c r="AB152" s="3"/>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A153" s="8"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -15466,7 +15458,7 @@
       <c r="AA153" s="3"/>
       <c r="AB153" s="3"/>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A154" s="8"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -15496,7 +15488,7 @@
       <c r="AA154" s="3"/>
       <c r="AB154" s="3"/>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A155" s="8"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -15526,7 +15518,7 @@
       <c r="AA155" s="3"/>
       <c r="AB155" s="3"/>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A156" s="8"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -15556,7 +15548,7 @@
       <c r="AA156" s="3"/>
       <c r="AB156" s="3"/>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A157" s="8"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -15586,7 +15578,7 @@
       <c r="AA157" s="3"/>
       <c r="AB157" s="3"/>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A158" s="8"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -15616,7 +15608,7 @@
       <c r="AA158" s="3"/>
       <c r="AB158" s="3"/>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A159" s="8"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -15646,7 +15638,7 @@
       <c r="AA159" s="3"/>
       <c r="AB159" s="3"/>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A160" s="8"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -15676,7 +15668,7 @@
       <c r="AA160" s="3"/>
       <c r="AB160" s="3"/>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A161" s="8"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -15706,7 +15698,7 @@
       <c r="AA161" s="3"/>
       <c r="AB161" s="3"/>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A162" s="8"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -15736,7 +15728,7 @@
       <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A163" s="8"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -15766,7 +15758,7 @@
       <c r="AA163" s="3"/>
       <c r="AB163" s="3"/>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A164" s="8"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -15796,7 +15788,7 @@
       <c r="AA164" s="3"/>
       <c r="AB164" s="3"/>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A165" s="8"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -15826,7 +15818,7 @@
       <c r="AA165" s="3"/>
       <c r="AB165" s="3"/>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A166" s="8"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -15856,7 +15848,7 @@
       <c r="AA166" s="3"/>
       <c r="AB166" s="3"/>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A167" s="8"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -15886,7 +15878,7 @@
       <c r="AA167" s="3"/>
       <c r="AB167" s="3"/>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A168" s="8"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -15916,7 +15908,7 @@
       <c r="AA168" s="3"/>
       <c r="AB168" s="3"/>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A169" s="8"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -15946,7 +15938,7 @@
       <c r="AA169" s="3"/>
       <c r="AB169" s="3"/>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A170" s="8"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -15976,7 +15968,7 @@
       <c r="AA170" s="3"/>
       <c r="AB170" s="3"/>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A171" s="8"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -16006,7 +15998,7 @@
       <c r="AA171" s="3"/>
       <c r="AB171" s="3"/>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A172" s="8"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -16036,7 +16028,7 @@
       <c r="AA172" s="3"/>
       <c r="AB172" s="3"/>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A173" s="8"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -16066,7 +16058,7 @@
       <c r="AA173" s="3"/>
       <c r="AB173" s="3"/>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -16096,7 +16088,7 @@
       <c r="AA174" s="4"/>
       <c r="AB174" s="4"/>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A175" s="7"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -16126,7 +16118,7 @@
       <c r="AA175" s="4"/>
       <c r="AB175" s="4"/>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -16156,7 +16148,7 @@
       <c r="AA176" s="4"/>
       <c r="AB176" s="5"/>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -16186,7 +16178,7 @@
       <c r="AA177" s="4"/>
       <c r="AB177" s="4"/>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -16216,7 +16208,7 @@
       <c r="AA178" s="4"/>
       <c r="AB178" s="4"/>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -16246,7 +16238,7 @@
       <c r="AA179" s="4"/>
       <c r="AB179" s="4"/>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -16276,7 +16268,7 @@
       <c r="AA180" s="4"/>
       <c r="AB180" s="4"/>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -16306,7 +16298,7 @@
       <c r="AA181" s="4"/>
       <c r="AB181" s="4"/>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -16336,7 +16328,7 @@
       <c r="AA182" s="4"/>
       <c r="AB182" s="4"/>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -16366,7 +16358,7 @@
       <c r="AA183" s="4"/>
       <c r="AB183" s="4"/>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -16396,7 +16388,7 @@
       <c r="AA184" s="4"/>
       <c r="AB184" s="4"/>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -16426,7 +16418,7 @@
       <c r="AA185" s="4"/>
       <c r="AB185" s="4"/>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -16456,7 +16448,7 @@
       <c r="AA186" s="4"/>
       <c r="AB186" s="4"/>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -16486,7 +16478,7 @@
       <c r="AA187" s="4"/>
       <c r="AB187" s="4"/>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -16516,7 +16508,7 @@
       <c r="AA188" s="4"/>
       <c r="AB188" s="4"/>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -16546,7 +16538,7 @@
       <c r="AA189" s="4"/>
       <c r="AB189" s="4"/>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -16576,7 +16568,7 @@
       <c r="AA190" s="4"/>
       <c r="AB190" s="4"/>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A191" s="7"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -16606,7 +16598,7 @@
       <c r="AA191" s="4"/>
       <c r="AB191" s="4"/>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -16636,7 +16628,7 @@
       <c r="AA192" s="4"/>
       <c r="AB192" s="4"/>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -16666,7 +16658,7 @@
       <c r="AA193" s="4"/>
       <c r="AB193" s="4"/>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -16696,7 +16688,7 @@
       <c r="AA194" s="4"/>
       <c r="AB194" s="4"/>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -16726,7 +16718,7 @@
       <c r="AA195" s="4"/>
       <c r="AB195" s="4"/>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -16756,7 +16748,7 @@
       <c r="AA196" s="4"/>
       <c r="AB196" s="4"/>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -16786,7 +16778,7 @@
       <c r="AA197" s="4"/>
       <c r="AB197" s="4"/>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -16816,7 +16808,7 @@
       <c r="AA198" s="4"/>
       <c r="AB198" s="4"/>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -16846,7 +16838,7 @@
       <c r="AA199" s="4"/>
       <c r="AB199" s="4"/>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -16876,7 +16868,7 @@
       <c r="AA200" s="4"/>
       <c r="AB200" s="4"/>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -16906,7 +16898,7 @@
       <c r="AA201" s="4"/>
       <c r="AB201" s="4"/>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -16936,7 +16928,7 @@
       <c r="AA202" s="4"/>
       <c r="AB202" s="4"/>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -16966,7 +16958,7 @@
       <c r="AA203" s="4"/>
       <c r="AB203" s="4"/>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -16996,7 +16988,7 @@
       <c r="AA204" s="4"/>
       <c r="AB204" s="4"/>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A205" s="7"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -17026,7 +17018,7 @@
       <c r="AA205" s="4"/>
       <c r="AB205" s="4"/>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -17056,7 +17048,7 @@
       <c r="AA206" s="4"/>
       <c r="AB206" s="4"/>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -17086,7 +17078,7 @@
       <c r="AA207" s="4"/>
       <c r="AB207" s="4"/>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A208" s="8"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -17116,7 +17108,7 @@
       <c r="AA208" s="3"/>
       <c r="AB208" s="3"/>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A209" s="8"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -17146,7 +17138,7 @@
       <c r="AA209" s="3"/>
       <c r="AB209" s="3"/>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A210" s="8"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -17176,7 +17168,7 @@
       <c r="AA210" s="3"/>
       <c r="AB210" s="3"/>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A211" s="8"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -17206,7 +17198,7 @@
       <c r="AA211" s="3"/>
       <c r="AB211" s="3"/>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A212" s="8"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -17236,7 +17228,7 @@
       <c r="AA212" s="3"/>
       <c r="AB212" s="3"/>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A213" s="8"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -17266,7 +17258,7 @@
       <c r="AA213" s="3"/>
       <c r="AB213" s="3"/>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A214" s="8"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -17296,7 +17288,7 @@
       <c r="AA214" s="3"/>
       <c r="AB214" s="3"/>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A215" s="8"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -17326,7 +17318,7 @@
       <c r="AA215" s="3"/>
       <c r="AB215" s="3"/>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A216" s="8"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -17356,7 +17348,7 @@
       <c r="AA216" s="3"/>
       <c r="AB216" s="3"/>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A217" s="8"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -17386,7 +17378,7 @@
       <c r="AA217" s="3"/>
       <c r="AB217" s="3"/>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A218" s="8"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -17416,7 +17408,7 @@
       <c r="AA218" s="3"/>
       <c r="AB218" s="3"/>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A219" s="8"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -17446,7 +17438,7 @@
       <c r="AA219" s="3"/>
       <c r="AB219" s="3"/>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A220" s="8"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -17476,7 +17468,7 @@
       <c r="AA220" s="3"/>
       <c r="AB220" s="3"/>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A221" s="8"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -17506,7 +17498,7 @@
       <c r="AA221" s="3"/>
       <c r="AB221" s="3"/>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A222" s="8"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -17536,7 +17528,7 @@
       <c r="AA222" s="3"/>
       <c r="AB222" s="3"/>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A223" s="8"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -17566,7 +17558,7 @@
       <c r="AA223" s="3"/>
       <c r="AB223" s="3"/>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A224" s="8"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -17596,7 +17588,7 @@
       <c r="AA224" s="3"/>
       <c r="AB224" s="3"/>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A225" s="8"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -17626,7 +17618,7 @@
       <c r="AA225" s="3"/>
       <c r="AB225" s="3"/>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A226" s="8"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -17656,7 +17648,7 @@
       <c r="AA226" s="3"/>
       <c r="AB226" s="3"/>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A227" s="8"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -17686,7 +17678,7 @@
       <c r="AA227" s="3"/>
       <c r="AB227" s="3"/>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A228" s="8"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -17716,7 +17708,7 @@
       <c r="AA228" s="3"/>
       <c r="AB228" s="3"/>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A229" s="8"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -17746,7 +17738,7 @@
       <c r="AA229" s="3"/>
       <c r="AB229" s="3"/>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A230" s="8"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -17776,7 +17768,7 @@
       <c r="AA230" s="3"/>
       <c r="AB230" s="3"/>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A231" s="8"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -17806,7 +17798,7 @@
       <c r="AA231" s="3"/>
       <c r="AB231" s="3"/>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A232" s="8"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -17836,7 +17828,7 @@
       <c r="AA232" s="3"/>
       <c r="AB232" s="3"/>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A233" s="8"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -17866,7 +17858,7 @@
       <c r="AA233" s="3"/>
       <c r="AB233" s="3"/>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A234" s="8"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -17896,7 +17888,7 @@
       <c r="AA234" s="3"/>
       <c r="AB234" s="3"/>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A235" s="8"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -17926,7 +17918,7 @@
       <c r="AA235" s="3"/>
       <c r="AB235" s="3"/>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A236" s="8"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -17956,7 +17948,7 @@
       <c r="AA236" s="3"/>
       <c r="AB236" s="3"/>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A237" s="8"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -17986,7 +17978,7 @@
       <c r="AA237" s="3"/>
       <c r="AB237" s="3"/>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A238" s="8"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -18016,7 +18008,7 @@
       <c r="AA238" s="3"/>
       <c r="AB238" s="3"/>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A239" s="8"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -18046,7 +18038,7 @@
       <c r="AA239" s="3"/>
       <c r="AB239" s="3"/>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A240" s="8"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -18076,7 +18068,7 @@
       <c r="AA240" s="3"/>
       <c r="AB240" s="3"/>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A241" s="8"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -18106,7 +18098,7 @@
       <c r="AA241" s="3"/>
       <c r="AB241" s="3"/>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A242" s="8"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -18136,7 +18128,7 @@
       <c r="AA242" s="3"/>
       <c r="AB242" s="3"/>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A243" s="8"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -18166,7 +18158,7 @@
       <c r="AA243" s="3"/>
       <c r="AB243" s="3"/>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A244" s="8"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -18196,7 +18188,7 @@
       <c r="AA244" s="3"/>
       <c r="AB244" s="3"/>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A245" s="8"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -18226,7 +18218,7 @@
       <c r="AA245" s="3"/>
       <c r="AB245" s="3"/>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A246" s="8"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -18256,7 +18248,7 @@
       <c r="AA246" s="3"/>
       <c r="AB246" s="3"/>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A247" s="8"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -18286,7 +18278,7 @@
       <c r="AA247" s="3"/>
       <c r="AB247" s="3"/>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A248" s="8"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -18316,7 +18308,7 @@
       <c r="AA248" s="3"/>
       <c r="AB248" s="3"/>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A249" s="8"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -18346,7 +18338,7 @@
       <c r="AA249" s="3"/>
       <c r="AB249" s="3"/>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A250" s="8"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -18376,7 +18368,7 @@
       <c r="AA250" s="3"/>
       <c r="AB250" s="3"/>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A251" s="8"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -18406,7 +18398,7 @@
       <c r="AA251" s="3"/>
       <c r="AB251" s="3"/>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A252" s="8"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -18436,7 +18428,7 @@
       <c r="AA252" s="3"/>
       <c r="AB252" s="3"/>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A253" s="8"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -18466,7 +18458,7 @@
       <c r="AA253" s="3"/>
       <c r="AB253" s="3"/>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A254" s="8"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -18496,7 +18488,7 @@
       <c r="AA254" s="3"/>
       <c r="AB254" s="3"/>
     </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A255" s="8"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -18526,7 +18518,7 @@
       <c r="AA255" s="3"/>
       <c r="AB255" s="3"/>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A256" s="8"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -18556,7 +18548,7 @@
       <c r="AA256" s="3"/>
       <c r="AB256" s="3"/>
     </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A257" s="8"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -18586,7 +18578,7 @@
       <c r="AA257" s="3"/>
       <c r="AB257" s="3"/>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A258" s="8"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -18616,7 +18608,7 @@
       <c r="AA258" s="3"/>
       <c r="AB258" s="3"/>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A259" s="8"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -18646,7 +18638,7 @@
       <c r="AA259" s="3"/>
       <c r="AB259" s="3"/>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A260" s="8"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -18676,7 +18668,7 @@
       <c r="AA260" s="3"/>
       <c r="AB260" s="3"/>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A261" s="8"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -18706,7 +18698,7 @@
       <c r="AA261" s="3"/>
       <c r="AB261" s="3"/>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A262" s="8"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -18736,7 +18728,7 @@
       <c r="AA262" s="3"/>
       <c r="AB262" s="3"/>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A263" s="8"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -18766,7 +18758,7 @@
       <c r="AA263" s="3"/>
       <c r="AB263" s="3"/>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A264" s="8"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -18796,7 +18788,7 @@
       <c r="AA264" s="3"/>
       <c r="AB264" s="3"/>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A265" s="8"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -18826,7 +18818,7 @@
       <c r="AA265" s="3"/>
       <c r="AB265" s="3"/>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A266" s="8"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -18856,7 +18848,7 @@
       <c r="AA266" s="3"/>
       <c r="AB266" s="3"/>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A267" s="8"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -18886,7 +18878,7 @@
       <c r="AA267" s="3"/>
       <c r="AB267" s="3"/>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A268" s="8"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -18916,7 +18908,7 @@
       <c r="AA268" s="3"/>
       <c r="AB268" s="3"/>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A269" s="8"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -18946,7 +18938,7 @@
       <c r="AA269" s="3"/>
       <c r="AB269" s="3"/>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A270" s="8"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -18976,7 +18968,7 @@
       <c r="AA270" s="3"/>
       <c r="AB270" s="3"/>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A271" s="8"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -19006,7 +18998,7 @@
       <c r="AA271" s="3"/>
       <c r="AB271" s="3"/>
     </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A272" s="8"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -19036,7 +19028,7 @@
       <c r="AA272" s="3"/>
       <c r="AB272" s="3"/>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A273" s="8"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -19066,7 +19058,7 @@
       <c r="AA273" s="3"/>
       <c r="AB273" s="3"/>
     </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A274" s="8"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -19096,7 +19088,7 @@
       <c r="AA274" s="3"/>
       <c r="AB274" s="3"/>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A275" s="8"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -19126,7 +19118,7 @@
       <c r="AA275" s="3"/>
       <c r="AB275" s="3"/>
     </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A276" s="8"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -19156,7 +19148,7 @@
       <c r="AA276" s="3"/>
       <c r="AB276" s="3"/>
     </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -19186,7 +19178,7 @@
       <c r="AA277" s="4"/>
       <c r="AB277" s="4"/>
     </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -19216,7 +19208,7 @@
       <c r="AA278" s="4"/>
       <c r="AB278" s="4"/>
     </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -19246,7 +19238,7 @@
       <c r="AA279" s="4"/>
       <c r="AB279" s="4"/>
     </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -19276,7 +19268,7 @@
       <c r="AA280" s="4"/>
       <c r="AB280" s="4"/>
     </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A281" s="7"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -19306,7 +19298,7 @@
       <c r="AA281" s="4"/>
       <c r="AB281" s="4"/>
     </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A282" s="7"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -19336,7 +19328,7 @@
       <c r="AA282" s="4"/>
       <c r="AB282" s="4"/>
     </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A283" s="7"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -19366,7 +19358,7 @@
       <c r="AA283" s="4"/>
       <c r="AB283" s="4"/>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A284" s="7"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -19396,7 +19388,7 @@
       <c r="AA284" s="4"/>
       <c r="AB284" s="4"/>
     </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A285" s="7"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -19426,7 +19418,7 @@
       <c r="AA285" s="4"/>
       <c r="AB285" s="4"/>
     </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A286" s="7"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -19456,7 +19448,7 @@
       <c r="AA286" s="4"/>
       <c r="AB286" s="4"/>
     </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A287" s="7"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -19486,7 +19478,7 @@
       <c r="AA287" s="4"/>
       <c r="AB287" s="4"/>
     </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A288" s="7"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -19516,7 +19508,7 @@
       <c r="AA288" s="4"/>
       <c r="AB288" s="4"/>
     </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A289" s="7"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -19546,7 +19538,7 @@
       <c r="AA289" s="4"/>
       <c r="AB289" s="4"/>
     </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A290" s="7"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -19576,7 +19568,7 @@
       <c r="AA290" s="4"/>
       <c r="AB290" s="4"/>
     </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A291" s="7"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -19606,7 +19598,7 @@
       <c r="AA291" s="4"/>
       <c r="AB291" s="4"/>
     </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A292" s="7"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -19636,7 +19628,7 @@
       <c r="AA292" s="4"/>
       <c r="AB292" s="4"/>
     </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A293" s="7"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -19666,7 +19658,7 @@
       <c r="AA293" s="4"/>
       <c r="AB293" s="4"/>
     </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A294" s="7"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -19696,7 +19688,7 @@
       <c r="AA294" s="4"/>
       <c r="AB294" s="4"/>
     </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A295" s="7"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -19726,7 +19718,7 @@
       <c r="AA295" s="4"/>
       <c r="AB295" s="4"/>
     </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A296" s="7"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
@@ -19756,7 +19748,7 @@
       <c r="AA296" s="4"/>
       <c r="AB296" s="4"/>
     </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A297" s="7"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
@@ -19786,7 +19778,7 @@
       <c r="AA297" s="4"/>
       <c r="AB297" s="4"/>
     </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A298" s="7"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -19816,7 +19808,7 @@
       <c r="AA298" s="4"/>
       <c r="AB298" s="4"/>
     </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A299" s="7"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -19846,7 +19838,7 @@
       <c r="AA299" s="4"/>
       <c r="AB299" s="4"/>
     </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A300" s="7"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -19876,7 +19868,7 @@
       <c r="AA300" s="4"/>
       <c r="AB300" s="4"/>
     </row>
-    <row r="301" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A301" s="7"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
@@ -19906,7 +19898,7 @@
       <c r="AA301" s="4"/>
       <c r="AB301" s="4"/>
     </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A302" s="7"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
@@ -19936,7 +19928,7 @@
       <c r="AA302" s="4"/>
       <c r="AB302" s="4"/>
     </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A303" s="7"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -19966,7 +19958,7 @@
       <c r="AA303" s="4"/>
       <c r="AB303" s="4"/>
     </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A304" s="7"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -19996,7 +19988,7 @@
       <c r="AA304" s="4"/>
       <c r="AB304" s="4"/>
     </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A305" s="7"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -20026,7 +20018,7 @@
       <c r="AA305" s="4"/>
       <c r="AB305" s="4"/>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A306" s="7"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
@@ -20056,7 +20048,7 @@
       <c r="AA306" s="4"/>
       <c r="AB306" s="4"/>
     </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A307" s="7"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
@@ -20086,7 +20078,7 @@
       <c r="AA307" s="4"/>
       <c r="AB307" s="4"/>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A308" s="7"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -20116,7 +20108,7 @@
       <c r="AA308" s="4"/>
       <c r="AB308" s="4"/>
     </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A309" s="7"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -20146,7 +20138,7 @@
       <c r="AA309" s="4"/>
       <c r="AB309" s="4"/>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A310" s="7"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -20176,7 +20168,7 @@
       <c r="AA310" s="4"/>
       <c r="AB310" s="4"/>
     </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A311" s="7"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -20206,7 +20198,7 @@
       <c r="AA311" s="4"/>
       <c r="AB311" s="4"/>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A312" s="7"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
@@ -20236,7 +20228,7 @@
       <c r="AA312" s="4"/>
       <c r="AB312" s="4"/>
     </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A313" s="7"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
@@ -20266,7 +20258,7 @@
       <c r="AA313" s="4"/>
       <c r="AB313" s="4"/>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A314" s="7"/>
       <c r="B314" s="4"/>
       <c r="C314" s="4"/>
@@ -20296,7 +20288,7 @@
       <c r="AA314" s="4"/>
       <c r="AB314" s="4"/>
     </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A315" s="7"/>
       <c r="B315" s="4"/>
       <c r="C315" s="4"/>
@@ -20326,7 +20318,7 @@
       <c r="AA315" s="4"/>
       <c r="AB315" s="4"/>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A316" s="7"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -20356,7 +20348,7 @@
       <c r="AA316" s="4"/>
       <c r="AB316" s="4"/>
     </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A317" s="7"/>
       <c r="B317" s="4"/>
       <c r="C317" s="4"/>
@@ -20386,7 +20378,7 @@
       <c r="AA317" s="4"/>
       <c r="AB317" s="4"/>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A318" s="7"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -20416,7 +20408,7 @@
       <c r="AA318" s="4"/>
       <c r="AB318" s="4"/>
     </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A319" s="7"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -20446,7 +20438,7 @@
       <c r="AA319" s="4"/>
       <c r="AB319" s="4"/>
     </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A320" s="7"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -20476,7 +20468,7 @@
       <c r="AA320" s="4"/>
       <c r="AB320" s="4"/>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A321" s="7"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -20506,7 +20498,7 @@
       <c r="AA321" s="4"/>
       <c r="AB321" s="4"/>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A322" s="7"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>

--- a/titlePilotStudy/data/SLV.xlsx
+++ b/titlePilotStudy/data/SLV.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="497">
   <si>
     <t>Identifier</t>
   </si>
@@ -1943,9 +1943,9 @@
   <dimension ref="A1:AS322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7229,7 +7229,9 @@
       <c r="E45" s="15">
         <v>1901</v>
       </c>
-      <c r="F45" s="15"/>
+      <c r="F45" s="15" t="s">
+        <v>446</v>
+      </c>
       <c r="G45" s="15" t="s">
         <v>121</v>
       </c>
@@ -9243,7 +9245,9 @@
       <c r="E62" s="15">
         <v>1903</v>
       </c>
-      <c r="F62" s="15"/>
+      <c r="F62" s="15" t="s">
+        <v>446</v>
+      </c>
       <c r="G62" s="15" t="s">
         <v>148</v>
       </c>
@@ -9598,7 +9602,9 @@
       <c r="E65" s="15">
         <v>1909</v>
       </c>
-      <c r="F65" s="15"/>
+      <c r="F65" s="15" t="s">
+        <v>446</v>
+      </c>
       <c r="G65" s="15" t="s">
         <v>433</v>
       </c>

--- a/titlePilotStudy/data/SLV.xlsx
+++ b/titlePilotStudy/data/SLV.xlsx
@@ -1312,9 +1312,6 @@
     <t>placeRoleII</t>
   </si>
   <si>
-    <t>placeSyntax II</t>
-  </si>
-  <si>
     <t>interpunc</t>
   </si>
   <si>
@@ -1481,9 +1478,6 @@
     <t>svitanje</t>
   </si>
   <si>
-    <t>other Entity II</t>
-  </si>
-  <si>
     <t>povrat</t>
   </si>
   <si>
@@ -1502,19 +1496,25 @@
     <t>groga</t>
   </si>
   <si>
-    <t>person II entity</t>
-  </si>
-  <si>
     <t>starce</t>
   </si>
   <si>
-    <t>person II</t>
-  </si>
-  <si>
-    <t>person II status</t>
-  </si>
-  <si>
     <t>Teharjanov</t>
+  </si>
+  <si>
+    <t>placeSyntaxII</t>
+  </si>
+  <si>
+    <t>other EntityII</t>
+  </si>
+  <si>
+    <t>personII</t>
+  </si>
+  <si>
+    <t>personIIstatus</t>
+  </si>
+  <si>
+    <t>personIIentity</t>
   </si>
 </sst>
 </file>
@@ -1943,9 +1943,9 @@
   <dimension ref="A1:AS322"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1977,10 +1977,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>3</v>
@@ -2085,10 +2085,10 @@
         <v>428</v>
       </c>
       <c r="AO1" s="10" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="AP1" s="10" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="AQ1" s="10" t="s">
         <v>494</v>
@@ -2097,7 +2097,7 @@
         <v>495</v>
       </c>
       <c r="AS1" s="10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="100.8" x14ac:dyDescent="0.3">
@@ -2117,10 +2117,10 @@
         <v>1891</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>40</v>
@@ -2162,7 +2162,7 @@
         <v>25</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>25</v>
@@ -2177,13 +2177,13 @@
         <v>215</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC2" s="2" t="s">
         <v>25</v>
@@ -2239,7 +2239,7 @@
         <v>1896</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>44</v>
@@ -2358,7 +2358,7 @@
         <v>1883</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G4" s="15" t="s">
         <v>355</v>
@@ -2406,7 +2406,7 @@
         <v>224</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>25</v>
@@ -2418,13 +2418,13 @@
         <v>25</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA4" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>25</v>
@@ -2475,7 +2475,7 @@
         <v>1897</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>51</v>
@@ -2594,7 +2594,7 @@
         <v>1894</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>356</v>
@@ -2642,7 +2642,7 @@
         <v>224</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>25</v>
@@ -2654,13 +2654,13 @@
         <v>215</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA6" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>25</v>
@@ -2711,7 +2711,7 @@
         <v>1892</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>357</v>
@@ -2756,10 +2756,10 @@
         <v>25</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>25</v>
@@ -2771,13 +2771,13 @@
         <v>215</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>25</v>
@@ -2813,7 +2813,7 @@
         <v>299</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:45" ht="100.8" x14ac:dyDescent="0.3">
@@ -2833,7 +2833,7 @@
         <v>1881</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>358</v>
@@ -2881,7 +2881,7 @@
         <v>224</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>25</v>
@@ -2893,13 +2893,13 @@
         <v>215</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>424</v>
@@ -2952,7 +2952,7 @@
         <v>1883</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>359</v>
@@ -3012,13 +3012,13 @@
         <v>215</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>25</v>
@@ -3071,7 +3071,7 @@
         <v>1877</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>360</v>
@@ -3131,7 +3131,7 @@
         <v>215</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>25</v>
@@ -3190,7 +3190,7 @@
         <v>1883</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>361</v>
@@ -3309,7 +3309,7 @@
         <v>1891</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>362</v>
@@ -3369,13 +3369,13 @@
         <v>215</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>25</v>
@@ -3428,7 +3428,7 @@
         <v>1885</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>363</v>
@@ -3488,13 +3488,13 @@
         <v>215</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>25</v>
@@ -3547,7 +3547,7 @@
         <v>1870</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>364</v>
@@ -3592,10 +3592,10 @@
         <v>25</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="W14" s="2" t="s">
         <v>25</v>
@@ -3607,13 +3607,13 @@
         <v>215</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>25</v>
@@ -3649,7 +3649,7 @@
         <v>301</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
@@ -3669,7 +3669,7 @@
         <v>1892</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>365</v>
@@ -3717,7 +3717,7 @@
         <v>25</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="W15" s="2" t="s">
         <v>25</v>
@@ -3729,13 +3729,13 @@
         <v>215</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA15" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>25</v>
@@ -3788,7 +3788,7 @@
         <v>1895</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>366</v>
@@ -3836,7 +3836,7 @@
         <v>25</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="W16" s="2" t="s">
         <v>25</v>
@@ -3848,13 +3848,13 @@
         <v>215</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA16" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC16" s="3" t="s">
         <v>216</v>
@@ -3907,7 +3907,7 @@
         <v>1894</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>367</v>
@@ -3967,13 +3967,13 @@
         <v>215</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA17" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC17" s="3" t="s">
         <v>216</v>
@@ -4026,7 +4026,7 @@
         <v>1891</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>368</v>
@@ -4086,13 +4086,13 @@
         <v>215</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA18" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>25</v>
@@ -4145,7 +4145,7 @@
         <v>1883</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>369</v>
@@ -4205,13 +4205,13 @@
         <v>215</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA19" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC19" s="3" t="s">
         <v>25</v>
@@ -4261,7 +4261,7 @@
         <v>1893</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>370</v>
@@ -4321,13 +4321,13 @@
         <v>215</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA20" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>25</v>
@@ -4366,7 +4366,7 @@
         <v>215</v>
       </c>
       <c r="AS20" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
@@ -4386,7 +4386,7 @@
         <v>1885</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>371</v>
@@ -4446,13 +4446,13 @@
         <v>215</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA21" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>25</v>
@@ -4502,7 +4502,7 @@
         <v>1876</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>372</v>
@@ -4562,13 +4562,13 @@
         <v>215</v>
       </c>
       <c r="Z22" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA22" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>216</v>
@@ -4621,7 +4621,7 @@
         <v>1881</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>373</v>
@@ -4681,13 +4681,13 @@
         <v>215</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA23" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC23" s="3" t="s">
         <v>25</v>
@@ -4737,7 +4737,7 @@
         <v>1886</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>422</v>
@@ -4797,13 +4797,13 @@
         <v>215</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA24" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC24" s="3" t="s">
         <v>216</v>
@@ -4856,7 +4856,7 @@
         <v>1887</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>374</v>
@@ -4904,7 +4904,7 @@
         <v>224</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="W25" s="2" t="s">
         <v>25</v>
@@ -4916,13 +4916,13 @@
         <v>215</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA25" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC25" s="3" t="s">
         <v>25</v>
@@ -4975,7 +4975,7 @@
         <v>1885</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>375</v>
@@ -5035,13 +5035,13 @@
         <v>215</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA26" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC26" s="3" t="s">
         <v>25</v>
@@ -5091,7 +5091,7 @@
         <v>1896</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>90</v>
@@ -5210,10 +5210,10 @@
         <v>1897</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>88</v>
@@ -5255,7 +5255,7 @@
         <v>25</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>309</v>
@@ -5276,7 +5276,7 @@
         <v>215</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC28" s="3" t="s">
         <v>25</v>
@@ -5329,7 +5329,7 @@
         <v>1899</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>93</v>
@@ -5445,7 +5445,7 @@
         <v>1897</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>376</v>
@@ -5493,7 +5493,7 @@
         <v>224</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="W30" s="2" t="s">
         <v>25</v>
@@ -5505,13 +5505,13 @@
         <v>215</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA30" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC30" s="3" t="s">
         <v>25</v>
@@ -5561,7 +5561,7 @@
         <v>1877</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>377</v>
@@ -5606,10 +5606,10 @@
         <v>25</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="W31" s="2" t="s">
         <v>25</v>
@@ -5621,13 +5621,13 @@
         <v>215</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA31" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC31" s="3" t="s">
         <v>25</v>
@@ -5683,7 +5683,7 @@
         <v>1903</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>98</v>
@@ -5749,7 +5749,7 @@
         <v>215</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC32" s="3" t="s">
         <v>25</v>
@@ -5802,7 +5802,7 @@
         <v>1917</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>100</v>
@@ -5847,10 +5847,10 @@
         <v>25</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="W33" s="2" t="s">
         <v>25</v>
@@ -5924,7 +5924,7 @@
         <v>1916</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>378</v>
@@ -5984,13 +5984,13 @@
         <v>215</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA34" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC34" s="3" t="s">
         <v>25</v>
@@ -6043,7 +6043,7 @@
         <v>1909</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>379</v>
@@ -6103,13 +6103,13 @@
         <v>215</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA35" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AC35" s="3" t="s">
         <v>25</v>
@@ -6162,7 +6162,7 @@
         <v>1910</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>380</v>
@@ -6222,13 +6222,13 @@
         <v>215</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA36" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC36" s="3" t="s">
         <v>25</v>
@@ -6281,7 +6281,7 @@
         <v>1917</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>108</v>
@@ -6329,7 +6329,7 @@
         <v>224</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="W37" s="2" t="s">
         <v>25</v>
@@ -6400,7 +6400,7 @@
         <v>1882</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>381</v>
@@ -6448,7 +6448,7 @@
         <v>224</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>25</v>
@@ -6460,13 +6460,13 @@
         <v>215</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA38" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC38" s="3" t="s">
         <v>25</v>
@@ -6519,7 +6519,7 @@
         <v>1908</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>382</v>
@@ -6567,7 +6567,7 @@
         <v>224</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W39" s="2" t="s">
         <v>25</v>
@@ -6579,13 +6579,13 @@
         <v>215</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA39" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC39" s="3" t="s">
         <v>25</v>
@@ -6638,7 +6638,7 @@
         <v>1900</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>383</v>
@@ -6686,7 +6686,7 @@
         <v>224</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W40" s="2" t="s">
         <v>25</v>
@@ -6698,13 +6698,13 @@
         <v>215</v>
       </c>
       <c r="Z40" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA40" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC40" s="3" t="s">
         <v>25</v>
@@ -6757,7 +6757,7 @@
         <v>1909</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>384</v>
@@ -6817,13 +6817,13 @@
         <v>215</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA41" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>25</v>
@@ -6876,7 +6876,7 @@
         <v>1906</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>385</v>
@@ -6936,13 +6936,13 @@
         <v>215</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA42" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AC42" s="3" t="s">
         <v>25</v>
@@ -6992,7 +6992,7 @@
         <v>1902</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>118</v>
@@ -7108,10 +7108,10 @@
         <v>39</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>386</v>
@@ -7159,7 +7159,7 @@
         <v>224</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="W44" s="2" t="s">
         <v>25</v>
@@ -7171,13 +7171,13 @@
         <v>215</v>
       </c>
       <c r="Z44" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA44" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB44" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC44" s="3" t="s">
         <v>25</v>
@@ -7230,7 +7230,7 @@
         <v>1901</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>121</v>
@@ -7343,10 +7343,10 @@
         <v>39</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>387</v>
@@ -7406,13 +7406,13 @@
         <v>215</v>
       </c>
       <c r="Z46" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA46" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>25</v>
@@ -7462,7 +7462,7 @@
         <v>1895</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>388</v>
@@ -7510,7 +7510,7 @@
         <v>224</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="W47" s="2" t="s">
         <v>25</v>
@@ -7522,13 +7522,13 @@
         <v>215</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA47" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>25</v>
@@ -7581,7 +7581,7 @@
         <v>1901</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>389</v>
@@ -7629,7 +7629,7 @@
         <v>224</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="W48" s="2" t="s">
         <v>25</v>
@@ -7641,13 +7641,13 @@
         <v>215</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA48" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC48" s="3" t="s">
         <v>424</v>
@@ -7700,7 +7700,7 @@
         <v>1903</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>390</v>
@@ -7748,7 +7748,7 @@
         <v>224</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="W49" s="2" t="s">
         <v>25</v>
@@ -7760,13 +7760,13 @@
         <v>215</v>
       </c>
       <c r="Z49" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA49" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB49" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>424</v>
@@ -7819,7 +7819,7 @@
         <v>1904</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>391</v>
@@ -7879,13 +7879,13 @@
         <v>215</v>
       </c>
       <c r="Z50" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA50" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB50" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC50" s="3" t="s">
         <v>424</v>
@@ -7938,7 +7938,7 @@
         <v>1904</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>392</v>
@@ -7998,13 +7998,13 @@
         <v>215</v>
       </c>
       <c r="Z51" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA51" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC51" s="3" t="s">
         <v>25</v>
@@ -8057,7 +8057,7 @@
         <v>1910</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>393</v>
@@ -8100,10 +8100,10 @@
         <v>219</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="W52" s="2" t="s">
         <v>25</v>
@@ -8115,7 +8115,7 @@
         <v>215</v>
       </c>
       <c r="Z52" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA52" s="2" t="s">
         <v>25</v>
@@ -8157,7 +8157,7 @@
         <v>324</v>
       </c>
       <c r="AP52" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:42" ht="72" x14ac:dyDescent="0.3">
@@ -8177,7 +8177,7 @@
         <v>1904</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>394</v>
@@ -8237,13 +8237,13 @@
         <v>215</v>
       </c>
       <c r="Z53" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA53" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC53" s="3" t="s">
         <v>25</v>
@@ -8296,7 +8296,7 @@
         <v>1907</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>395</v>
@@ -8356,13 +8356,13 @@
         <v>215</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA54" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC54" s="3" t="s">
         <v>25</v>
@@ -8415,7 +8415,7 @@
         <v>1909</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>396</v>
@@ -8475,13 +8475,13 @@
         <v>215</v>
       </c>
       <c r="Z55" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA55" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB55" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC55" s="3" t="s">
         <v>216</v>
@@ -8534,7 +8534,7 @@
         <v>1909</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>397</v>
@@ -8594,13 +8594,13 @@
         <v>215</v>
       </c>
       <c r="Z56" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA56" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC56" s="3" t="s">
         <v>25</v>
@@ -8653,7 +8653,7 @@
         <v>1895</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G57" s="15" t="s">
         <v>139</v>
@@ -8686,7 +8686,7 @@
         <v>25</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="R57" s="2" t="s">
         <v>25</v>
@@ -8772,7 +8772,7 @@
         <v>1917</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>142</v>
@@ -8891,7 +8891,7 @@
         <v>1918</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>398</v>
@@ -8939,7 +8939,7 @@
         <v>224</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W59" s="2" t="s">
         <v>25</v>
@@ -8957,7 +8957,7 @@
         <v>215</v>
       </c>
       <c r="AB59" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>25</v>
@@ -9010,7 +9010,7 @@
         <v>1913</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>399</v>
@@ -9055,7 +9055,7 @@
         <v>25</v>
       </c>
       <c r="U60" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V60" s="2" t="s">
         <v>328</v>
@@ -9076,7 +9076,7 @@
         <v>215</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC60" s="3" t="s">
         <v>25</v>
@@ -9129,7 +9129,7 @@
         <v>1904</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>400</v>
@@ -9147,7 +9147,7 @@
         <v>25</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M61" s="2" t="s">
         <v>25</v>
@@ -9187,13 +9187,13 @@
         <v>215</v>
       </c>
       <c r="Z61" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA61" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC61" s="3" t="s">
         <v>216</v>
@@ -9246,7 +9246,7 @@
         <v>1903</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>148</v>
@@ -9362,7 +9362,7 @@
         <v>1912</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G63" s="15" t="s">
         <v>401</v>
@@ -9422,13 +9422,13 @@
         <v>215</v>
       </c>
       <c r="Z63" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA63" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC63" s="3" t="s">
         <v>25</v>
@@ -9481,7 +9481,7 @@
         <v>1905</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>402</v>
@@ -9526,10 +9526,10 @@
         <v>25</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="W64" s="2" t="s">
         <v>25</v>
@@ -9541,13 +9541,13 @@
         <v>215</v>
       </c>
       <c r="Z64" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA64" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC64" s="3" t="s">
         <v>25</v>
@@ -9583,7 +9583,7 @@
         <v>331</v>
       </c>
       <c r="AP64" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:41" ht="86.4" x14ac:dyDescent="0.3">
@@ -9603,10 +9603,10 @@
         <v>1909</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>106</v>
@@ -9669,7 +9669,7 @@
         <v>215</v>
       </c>
       <c r="AB65" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC65" s="3" t="s">
         <v>216</v>
@@ -9725,10 +9725,10 @@
         <v>145</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G66" s="15" t="s">
         <v>403</v>
@@ -9788,13 +9788,13 @@
         <v>215</v>
       </c>
       <c r="Z66" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA66" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB66" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC66" s="3" t="s">
         <v>25</v>
@@ -9845,7 +9845,7 @@
         <v>1904</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G67" s="15" t="s">
         <v>154</v>
@@ -9962,7 +9962,7 @@
         <v>1876</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G68" s="15" t="s">
         <v>404</v>
@@ -10022,13 +10022,13 @@
         <v>215</v>
       </c>
       <c r="Z68" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA68" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB68" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC68" s="3" t="s">
         <v>216</v>
@@ -10079,10 +10079,10 @@
         <v>1836</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H69" s="15" t="s">
         <v>158</v>
@@ -10124,7 +10124,7 @@
         <v>25</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>334</v>
@@ -10139,7 +10139,7 @@
         <v>215</v>
       </c>
       <c r="Z69" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AA69" s="2" t="s">
         <v>25</v>
@@ -10196,10 +10196,10 @@
         <v>1905</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>160</v>
@@ -10244,7 +10244,7 @@
         <v>224</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W70" s="2" t="s">
         <v>25</v>
@@ -10262,7 +10262,7 @@
         <v>215</v>
       </c>
       <c r="AB70" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC70" s="3" t="s">
         <v>25</v>
@@ -10311,7 +10311,7 @@
         <v>1907</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>162</v>
@@ -10428,7 +10428,7 @@
         <v>1910</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>405</v>
@@ -10488,13 +10488,13 @@
         <v>215</v>
       </c>
       <c r="Z72" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA72" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB72" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>25</v>
@@ -10543,7 +10543,7 @@
         <v>1866</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G73" s="15" t="s">
         <v>406</v>
@@ -10603,13 +10603,13 @@
         <v>215</v>
       </c>
       <c r="Z73" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA73" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB73" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC73" s="3" t="s">
         <v>25</v>
@@ -10660,10 +10660,10 @@
         <v>1876</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>82</v>
@@ -10708,7 +10708,7 @@
         <v>224</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="W74" s="2" t="s">
         <v>25</v>
@@ -10720,13 +10720,13 @@
         <v>215</v>
       </c>
       <c r="Z74" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA74" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC74" s="3" t="s">
         <v>25</v>
@@ -10777,7 +10777,7 @@
         <v>1876</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G75" s="15" t="s">
         <v>407</v>
@@ -10837,13 +10837,13 @@
         <v>215</v>
       </c>
       <c r="Z75" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA75" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC75" s="3" t="s">
         <v>25</v>
@@ -10894,7 +10894,7 @@
         <v>1873</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G76" s="15" t="s">
         <v>408</v>
@@ -10954,13 +10954,13 @@
         <v>215</v>
       </c>
       <c r="Z76" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA76" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB76" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC76" s="3" t="s">
         <v>25</v>
@@ -11011,7 +11011,7 @@
         <v>1877</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G77" s="15" t="s">
         <v>409</v>
@@ -11071,13 +11071,13 @@
         <v>215</v>
       </c>
       <c r="Z77" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA77" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB77" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC77" s="3" t="s">
         <v>25</v>
@@ -11128,7 +11128,7 @@
         <v>1884</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>410</v>
@@ -11176,7 +11176,7 @@
         <v>224</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="W78" s="2" t="s">
         <v>25</v>
@@ -11188,13 +11188,13 @@
         <v>215</v>
       </c>
       <c r="Z78" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA78" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC78" s="3" t="s">
         <v>25</v>
@@ -11245,7 +11245,7 @@
         <v>1904</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G79" s="15" t="s">
         <v>411</v>
@@ -11305,13 +11305,13 @@
         <v>215</v>
       </c>
       <c r="Z79" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA79" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC79" s="3" t="s">
         <v>25</v>
@@ -11362,7 +11362,7 @@
         <v>1907</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G80" s="15" t="s">
         <v>175</v>
@@ -11428,7 +11428,7 @@
         <v>215</v>
       </c>
       <c r="AB80" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC80" s="3" t="s">
         <v>25</v>
@@ -11476,7 +11476,7 @@
         <v>1914</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G81" s="15" t="s">
         <v>412</v>
@@ -11524,7 +11524,7 @@
         <v>224</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W81" s="2" t="s">
         <v>25</v>
@@ -11542,7 +11542,7 @@
         <v>215</v>
       </c>
       <c r="AB81" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC81" s="3" t="s">
         <v>25</v>
@@ -11593,7 +11593,7 @@
         <v>1886</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G82" s="15" t="s">
         <v>413</v>
@@ -11653,7 +11653,7 @@
         <v>215</v>
       </c>
       <c r="Z82" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA82" s="2" t="s">
         <v>215</v>
@@ -11710,10 +11710,10 @@
         <v>1903</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H83" s="15" t="s">
         <v>132</v>
@@ -11770,13 +11770,13 @@
         <v>215</v>
       </c>
       <c r="Z83" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA83" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB83" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>25</v>
@@ -11827,7 +11827,7 @@
         <v>1913</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G84" s="15" t="s">
         <v>414</v>
@@ -11944,7 +11944,7 @@
         <v>1917</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G85" s="15" t="s">
         <v>183</v>
@@ -12061,7 +12061,7 @@
         <v>1898</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G86" s="15" t="s">
         <v>186</v>
@@ -12109,7 +12109,7 @@
         <v>224</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W86" s="2" t="s">
         <v>25</v>
@@ -12175,7 +12175,7 @@
         <v>1896</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G87" s="15" t="s">
         <v>415</v>
@@ -12235,13 +12235,13 @@
         <v>215</v>
       </c>
       <c r="Z87" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA87" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB87" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC87" s="3" t="s">
         <v>25</v>
@@ -12289,7 +12289,7 @@
         <v>1910</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G88" s="15" t="s">
         <v>416</v>
@@ -12349,13 +12349,13 @@
         <v>215</v>
       </c>
       <c r="Z88" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA88" s="2" t="s">
         <v>215</v>
       </c>
       <c r="AB88" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC88" s="3" t="s">
         <v>25</v>
@@ -12403,7 +12403,7 @@
         <v>1870</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>192</v>
@@ -12517,7 +12517,7 @@
         <v>1875</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G90" s="15" t="s">
         <v>195</v>
@@ -12631,7 +12631,7 @@
         <v>1876</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G91" s="15" t="s">
         <v>197</v>
@@ -12748,7 +12748,7 @@
         <v>1919</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G92" s="15" t="s">
         <v>199</v>
@@ -12814,7 +12814,7 @@
         <v>215</v>
       </c>
       <c r="AB92" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AC92" s="3" t="s">
         <v>25</v>
@@ -12865,7 +12865,7 @@
         <v>1911</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G93" s="15" t="s">
         <v>417</v>
@@ -12925,13 +12925,13 @@
         <v>215</v>
       </c>
       <c r="Z93" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA93" s="3" t="s">
         <v>215</v>
       </c>
       <c r="AB93" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC93" s="3" t="s">
         <v>25</v>
@@ -12982,7 +12982,7 @@
         <v>1889</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G94" s="15" t="s">
         <v>418</v>
@@ -13042,13 +13042,13 @@
         <v>215</v>
       </c>
       <c r="Z94" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>215</v>
       </c>
       <c r="AB94" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>25</v>
@@ -13096,7 +13096,7 @@
         <v>1889</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G95" s="15" t="s">
         <v>419</v>
@@ -13156,13 +13156,13 @@
         <v>215</v>
       </c>
       <c r="Z95" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA95" s="3" t="s">
         <v>215</v>
       </c>
       <c r="AB95" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AC95" s="3" t="s">
         <v>25</v>
@@ -13213,10 +13213,10 @@
         <v>1921</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H96" s="15" t="s">
         <v>45</v>
@@ -13261,7 +13261,7 @@
         <v>224</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W96" s="3" t="s">
         <v>25</v>
@@ -13279,7 +13279,7 @@
         <v>215</v>
       </c>
       <c r="AB96" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC96" s="3" t="s">
         <v>25</v>
@@ -13327,10 +13327,10 @@
         <v>1911</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G97" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H97" s="15" t="s">
         <v>207</v>
@@ -13393,7 +13393,7 @@
         <v>215</v>
       </c>
       <c r="AB97" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC97" s="3" t="s">
         <v>25</v>
@@ -13441,7 +13441,7 @@
         <v>1900</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G98" s="15" t="s">
         <v>420</v>
@@ -13486,7 +13486,7 @@
         <v>25</v>
       </c>
       <c r="U98" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V98" s="3" t="s">
         <v>351</v>
@@ -13501,13 +13501,13 @@
         <v>215</v>
       </c>
       <c r="Z98" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA98" s="3" t="s">
         <v>215</v>
       </c>
       <c r="AB98" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC98" s="3" t="s">
         <v>25</v>
@@ -13543,7 +13543,7 @@
         <v>351</v>
       </c>
       <c r="AP98" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="99" spans="1:45" ht="86.4" x14ac:dyDescent="0.3">
@@ -13561,10 +13561,10 @@
         <v>1859</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H99" s="15" t="s">
         <v>210</v>
@@ -13669,7 +13669,7 @@
         <v>25</v>
       </c>
       <c r="AS99" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="100" spans="1:45" ht="72" x14ac:dyDescent="0.3">
@@ -13687,7 +13687,7 @@
         <v>1884</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G100" s="15" t="s">
         <v>421</v>
@@ -13747,7 +13747,7 @@
         <v>215</v>
       </c>
       <c r="Z100" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>215</v>
@@ -13802,7 +13802,7 @@
         <v>1913</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G101" s="15" t="s">
         <v>213</v>
@@ -13850,7 +13850,7 @@
         <v>224</v>
       </c>
       <c r="V101" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>25</v>
